--- a/doc/仕様/位置決め計算表.xlsx
+++ b/doc/仕様/位置決め計算表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>50スタート19ピッチの位置計算</t>
     <rPh sb="12" eb="14">
@@ -57,6 +57,30 @@
     <t>5行目</t>
     <rPh sb="1" eb="3">
       <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.25同士の幅</t>
+    <rPh sb="4" eb="6">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.25と１の幅</t>
+    <rPh sb="7" eb="8">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.25Uの幅</t>
+    <rPh sb="6" eb="7">
+      <t>ハバ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -391,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -402,7 +426,7 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>50</v>
       </c>
@@ -433,7 +457,7 @@
         <v>52.375</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3">
         <f>B2+19</f>
         <v>69</v>
@@ -443,7 +467,7 @@
         <v>76.125</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4">
         <f t="shared" ref="B4:B7" si="0">B3+19</f>
         <v>88</v>
@@ -456,7 +480,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -470,7 +494,7 @@
         <v>118.875</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>126</v>
@@ -480,10 +504,37 @@
         <v>142.625</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G11">
+        <f>G5-G4</f>
+        <v>21.375</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G12">
+        <f>G6-G5</f>
+        <v>23.75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G14">
+        <f>19*1.25</f>
+        <v>23.75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
